--- a/DATOS/Divorcios2017.xlsx
+++ b/DATOS/Divorcios2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bak up UES_al 12-10-16\UNIDAD EST. SALUD\VITALES\Estadisticas Vitales 2017\Divorcios 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue\Desktop\PROYECTO\Proyecto-AnalisisExploratorioClustering-MineriaDeDatos\DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C9A380-7179-42D7-B33C-520516CE0A9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBEB27A-B631-4D97-9FDF-E9E205D4756A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7155" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" tabRatio="714" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contenido" sheetId="15" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>15-19</t>
   </si>
@@ -315,12 +315,6 @@
   </si>
   <si>
     <t>Divorcios por mes de ocurrencia, según día de ocurrencia, año 2017</t>
-  </si>
-  <si>
-    <t>Divorcios por grupos de edad del esposo, según grupos de edad de la esposa, al momento de la sentencia, año 2017</t>
-  </si>
-  <si>
-    <t>Edad del esposo</t>
   </si>
 </sst>
 </file>
@@ -329,8 +323,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -527,10 +521,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -551,9 +545,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -586,18 +577,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -651,9 +642,6 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -696,87 +684,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>291309</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="1 CuadroTexto">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10934700" y="0"/>
-          <a:ext cx="710409" cy="257174"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Regresar</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -857,7 +764,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -938,7 +845,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1019,7 +926,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1423,113 +1330,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="27"/>
+    <col min="1" max="16384" width="11.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1554,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1568,580 +1475,540 @@
     <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="21">
+        <v>5808</v>
+      </c>
+      <c r="C2" s="21">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21">
+        <v>267</v>
+      </c>
+      <c r="E2" s="21">
+        <v>670</v>
+      </c>
+      <c r="F2" s="21">
+        <v>674</v>
+      </c>
+      <c r="G2" s="21">
+        <v>485</v>
+      </c>
+      <c r="H2" s="21">
+        <v>300</v>
+      </c>
+      <c r="I2" s="21">
+        <v>176</v>
+      </c>
+      <c r="J2" s="21">
+        <v>104</v>
+      </c>
+      <c r="K2" s="21">
+        <v>92</v>
+      </c>
+      <c r="L2" s="21">
         <v>95</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="M2" s="21">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="20">
+        <v>79</v>
+      </c>
+      <c r="C3" s="20">
+        <v>5</v>
+      </c>
+      <c r="D3" s="20">
+        <v>45</v>
+      </c>
+      <c r="E3" s="20">
+        <v>20</v>
+      </c>
+      <c r="F3" s="20">
+        <v>5</v>
+      </c>
+      <c r="G3" s="20">
+        <v>3</v>
+      </c>
+      <c r="H3" s="20">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20">
+        <v>549</v>
+      </c>
+      <c r="C4" s="20">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="D4" s="20">
+        <v>168</v>
+      </c>
+      <c r="E4" s="20">
+        <v>242</v>
+      </c>
+      <c r="F4" s="20">
+        <v>83</v>
+      </c>
+      <c r="G4" s="20">
+        <v>41</v>
+      </c>
+      <c r="H4" s="20">
+        <v>7</v>
+      </c>
+      <c r="I4" s="20">
+        <v>2</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="20">
         <v>3</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="M4" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="20">
+        <v>741</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20">
+        <v>43</v>
+      </c>
+      <c r="E5" s="20">
+        <v>301</v>
+      </c>
+      <c r="F5" s="20">
+        <v>265</v>
+      </c>
+      <c r="G5" s="20">
+        <v>74</v>
+      </c>
+      <c r="H5" s="20">
+        <v>29</v>
+      </c>
+      <c r="I5" s="20">
+        <v>7</v>
+      </c>
+      <c r="J5" s="20">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="K5" s="20">
         <v>5</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="L5" s="20">
+        <v>2</v>
+      </c>
+      <c r="M5" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="20">
+        <v>597</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20">
+        <v>78</v>
+      </c>
+      <c r="F6" s="20">
+        <v>227</v>
+      </c>
+      <c r="G6" s="20">
+        <v>159</v>
+      </c>
+      <c r="H6" s="20">
+        <v>55</v>
+      </c>
+      <c r="I6" s="20">
+        <v>14</v>
+      </c>
+      <c r="J6" s="20">
+        <v>7</v>
+      </c>
+      <c r="K6" s="20">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="L6" s="20">
+        <v>3</v>
+      </c>
+      <c r="M6" s="20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="20">
+        <v>355</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20">
+        <v>20</v>
+      </c>
+      <c r="F7" s="20">
+        <v>54</v>
+      </c>
+      <c r="G7" s="20">
+        <v>132</v>
+      </c>
+      <c r="H7" s="20">
+        <v>78</v>
+      </c>
+      <c r="I7" s="20">
+        <v>22</v>
+      </c>
+      <c r="J7" s="20">
+        <v>3</v>
+      </c>
+      <c r="K7" s="20">
+        <v>4</v>
+      </c>
+      <c r="L7" s="20">
+        <v>2</v>
+      </c>
+      <c r="M7" s="20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="20">
+        <v>231</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>4</v>
+      </c>
+      <c r="F8" s="20">
+        <v>11</v>
+      </c>
+      <c r="G8" s="20">
+        <v>30</v>
+      </c>
+      <c r="H8" s="20">
+        <v>57</v>
+      </c>
+      <c r="I8" s="20">
+        <v>50</v>
+      </c>
+      <c r="J8" s="20">
+        <v>19</v>
+      </c>
+      <c r="K8" s="20">
+        <v>14</v>
+      </c>
+      <c r="L8" s="20">
+        <v>5</v>
+      </c>
+      <c r="M8" s="20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="20">
+        <v>142</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20">
         <v>7</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="G9" s="20">
+        <v>3</v>
+      </c>
+      <c r="H9" s="20">
+        <v>14</v>
+      </c>
+      <c r="I9" s="20">
+        <v>41</v>
+      </c>
+      <c r="J9" s="20">
+        <v>26</v>
+      </c>
+      <c r="K9" s="20">
+        <v>14</v>
+      </c>
+      <c r="L9" s="20">
+        <v>5</v>
+      </c>
+      <c r="M9" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="20">
+        <v>83</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>5</v>
+      </c>
+      <c r="H10" s="20">
+        <v>6</v>
+      </c>
+      <c r="I10" s="20">
         <v>8</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="J10" s="20">
+        <v>17</v>
+      </c>
+      <c r="K10" s="20">
+        <v>25</v>
+      </c>
+      <c r="L10" s="20">
+        <v>12</v>
+      </c>
+      <c r="M10" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="20">
+        <v>47</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <v>5</v>
+      </c>
+      <c r="J11" s="20">
+        <v>5</v>
+      </c>
+      <c r="K11" s="20">
+        <v>8</v>
+      </c>
+      <c r="L11" s="20">
+        <v>21</v>
+      </c>
+      <c r="M11" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="B12" s="20">
+        <v>29</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <v>1</v>
+      </c>
+      <c r="K12" s="20">
+        <v>1</v>
+      </c>
+      <c r="L12" s="20">
+        <v>23</v>
+      </c>
+      <c r="M12" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="22">
-        <v>5808</v>
-      </c>
-      <c r="C4" s="22">
-        <v>7</v>
-      </c>
-      <c r="D4" s="22">
-        <v>267</v>
-      </c>
-      <c r="E4" s="22">
-        <v>670</v>
-      </c>
-      <c r="F4" s="22">
-        <v>674</v>
-      </c>
-      <c r="G4" s="22">
-        <v>485</v>
-      </c>
-      <c r="H4" s="22">
-        <v>300</v>
-      </c>
-      <c r="I4" s="22">
-        <v>176</v>
-      </c>
-      <c r="J4" s="22">
-        <v>104</v>
-      </c>
-      <c r="K4" s="22">
-        <v>92</v>
-      </c>
-      <c r="L4" s="22">
-        <v>95</v>
-      </c>
-      <c r="M4" s="22">
-        <v>2938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="21">
-        <v>79</v>
-      </c>
-      <c r="C5" s="21">
-        <v>5</v>
-      </c>
-      <c r="D5" s="21">
-        <v>45</v>
-      </c>
-      <c r="E5" s="21">
-        <v>20</v>
-      </c>
-      <c r="F5" s="21">
-        <v>5</v>
-      </c>
-      <c r="G5" s="21">
-        <v>3</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="B13" s="20">
+        <v>2955</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="I5" s="21">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="21">
-        <v>549</v>
-      </c>
-      <c r="C6" s="21">
-        <v>2</v>
-      </c>
-      <c r="D6" s="21">
-        <v>168</v>
-      </c>
-      <c r="E6" s="21">
-        <v>242</v>
-      </c>
-      <c r="F6" s="21">
-        <v>83</v>
-      </c>
-      <c r="G6" s="21">
-        <v>41</v>
-      </c>
-      <c r="H6" s="21">
-        <v>7</v>
-      </c>
-      <c r="I6" s="21">
-        <v>2</v>
-      </c>
-      <c r="J6" s="21">
-        <v>0</v>
-      </c>
-      <c r="K6" s="21">
-        <v>0</v>
-      </c>
-      <c r="L6" s="21">
-        <v>3</v>
-      </c>
-      <c r="M6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="21">
-        <v>741</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <v>43</v>
-      </c>
-      <c r="E7" s="21">
-        <v>301</v>
-      </c>
-      <c r="F7" s="21">
-        <v>265</v>
-      </c>
-      <c r="G7" s="21">
-        <v>74</v>
-      </c>
-      <c r="H7" s="21">
-        <v>29</v>
-      </c>
-      <c r="I7" s="21">
-        <v>7</v>
-      </c>
-      <c r="J7" s="21">
+      <c r="E13" s="20">
         <v>4</v>
       </c>
-      <c r="K7" s="21">
-        <v>5</v>
-      </c>
-      <c r="L7" s="21">
-        <v>2</v>
-      </c>
-      <c r="M7" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="21">
-        <v>597</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21">
-        <v>7</v>
-      </c>
-      <c r="E8" s="21">
-        <v>78</v>
-      </c>
-      <c r="F8" s="21">
-        <v>227</v>
-      </c>
-      <c r="G8" s="21">
-        <v>159</v>
-      </c>
-      <c r="H8" s="21">
-        <v>55</v>
-      </c>
-      <c r="I8" s="21">
-        <v>14</v>
-      </c>
-      <c r="J8" s="21">
-        <v>7</v>
-      </c>
-      <c r="K8" s="21">
-        <v>6</v>
-      </c>
-      <c r="L8" s="21">
-        <v>3</v>
-      </c>
-      <c r="M8" s="21">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="21">
-        <v>355</v>
-      </c>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <v>2</v>
-      </c>
-      <c r="E9" s="21">
-        <v>20</v>
-      </c>
-      <c r="F9" s="21">
-        <v>54</v>
-      </c>
-      <c r="G9" s="21">
-        <v>132</v>
-      </c>
-      <c r="H9" s="21">
-        <v>78</v>
-      </c>
-      <c r="I9" s="21">
+      <c r="F13" s="20">
         <v>22</v>
       </c>
-      <c r="J9" s="21">
-        <v>3</v>
-      </c>
-      <c r="K9" s="21">
-        <v>4</v>
-      </c>
-      <c r="L9" s="21">
-        <v>2</v>
-      </c>
-      <c r="M9" s="21">
+      <c r="G13" s="20">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="21">
-        <v>231</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="21">
-        <v>4</v>
-      </c>
-      <c r="F10" s="21">
-        <v>11</v>
-      </c>
-      <c r="G10" s="21">
-        <v>30</v>
-      </c>
-      <c r="H10" s="21">
-        <v>57</v>
-      </c>
-      <c r="I10" s="21">
-        <v>50</v>
-      </c>
-      <c r="J10" s="21">
+      <c r="H13" s="20">
+        <v>52</v>
+      </c>
+      <c r="I13" s="20">
+        <v>27</v>
+      </c>
+      <c r="J13" s="20">
+        <v>22</v>
+      </c>
+      <c r="K13" s="20">
+        <v>15</v>
+      </c>
+      <c r="L13" s="20">
         <v>19</v>
       </c>
-      <c r="K10" s="21">
-        <v>14</v>
-      </c>
-      <c r="L10" s="21">
-        <v>5</v>
-      </c>
-      <c r="M10" s="21">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="21">
-        <v>142</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0</v>
-      </c>
-      <c r="D11" s="21">
-        <v>1</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="21">
-        <v>7</v>
-      </c>
-      <c r="G11" s="21">
-        <v>3</v>
-      </c>
-      <c r="H11" s="21">
-        <v>14</v>
-      </c>
-      <c r="I11" s="21">
-        <v>41</v>
-      </c>
-      <c r="J11" s="21">
-        <v>26</v>
-      </c>
-      <c r="K11" s="21">
-        <v>14</v>
-      </c>
-      <c r="L11" s="21">
-        <v>5</v>
-      </c>
-      <c r="M11" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="21">
-        <v>83</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>5</v>
-      </c>
-      <c r="H12" s="21">
-        <v>6</v>
-      </c>
-      <c r="I12" s="21">
-        <v>8</v>
-      </c>
-      <c r="J12" s="21">
-        <v>17</v>
-      </c>
-      <c r="K12" s="21">
-        <v>25</v>
-      </c>
-      <c r="L12" s="21">
-        <v>12</v>
-      </c>
-      <c r="M12" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="21">
-        <v>47</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21">
-        <v>5</v>
-      </c>
-      <c r="J13" s="21">
-        <v>5</v>
-      </c>
-      <c r="K13" s="21">
-        <v>8</v>
-      </c>
-      <c r="L13" s="21">
-        <v>21</v>
-      </c>
-      <c r="M13" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="21">
-        <v>29</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
-        <v>1</v>
-      </c>
-      <c r="K14" s="21">
-        <v>1</v>
-      </c>
-      <c r="L14" s="21">
-        <v>23</v>
-      </c>
-      <c r="M14" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="21">
-        <v>2955</v>
-      </c>
-      <c r="C15" s="21">
-        <v>0</v>
-      </c>
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
-      <c r="E15" s="21">
-        <v>4</v>
-      </c>
-      <c r="F15" s="21">
-        <v>22</v>
-      </c>
-      <c r="G15" s="21">
-        <v>38</v>
-      </c>
-      <c r="H15" s="21">
-        <v>52</v>
-      </c>
-      <c r="I15" s="21">
-        <v>27</v>
-      </c>
-      <c r="J15" s="21">
-        <v>22</v>
-      </c>
-      <c r="K15" s="21">
-        <v>15</v>
-      </c>
-      <c r="L15" s="21">
-        <v>19</v>
-      </c>
-      <c r="M15" s="21">
+      <c r="M13" s="20">
         <v>2755</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:M2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.3779527559055118" right="0.59055118110236227" top="0.98425196850393704" bottom="0.78740157480314965" header="0.59055118110236227" footer="0.78740157480314965"/>
@@ -2150,8 +2017,7 @@
     <oddHeader>&amp;R&amp;"Arial,Negrita"Instituto Nacional de Estadística, Guatemala</oddHeader>
     <oddFooter>&amp;CEstadísticas Vitales Pág. &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2170,235 +2036,235 @@
     <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>5808</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>412</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>3</v>
       </c>
-      <c r="E4" s="20">
-        <v>0</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
         <v>2184</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>24</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>3185</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>391</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>291</v>
       </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
         <v>62</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>4</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
         <v>2</v>
       </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>2173</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>78</v>
       </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
         <v>1788</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>15</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>33</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>4</v>
       </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
         <v>21</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>2</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>3208</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>39</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>1</v>
       </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
         <v>313</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>3</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>2852</v>
       </c>
     </row>
@@ -2440,1077 +2306,1077 @@
     <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>5808</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>428</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>469</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>531</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>445</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>570</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>476</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>434</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <v>508</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>489</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>508</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>492</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="19">
         <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>2179</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>160</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>186</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>189</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>177</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>237</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>178</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>162</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>172</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>199</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>208</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>150</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="13">
         <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>106</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>8</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>12</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>6</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>6</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>3</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>3</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>4</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>9</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>19</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>7</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>135</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>6</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>7</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>8</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>12</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>15</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>12</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>11</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>16</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>15</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>16</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>10</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>130</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>12</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>12</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>11</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>15</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>12</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>5</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>18</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>10</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>11</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>13</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>332</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>19</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>24</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>38</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>15</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>37</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>34</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>40</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>24</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>20</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>23</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>29</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>150</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>12</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>8</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>11</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>13</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>17</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>12</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>6</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>17</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>15</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>13</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>17</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>72</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>4</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>3</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>9</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>7</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>8</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>7</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>3</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>8</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>3</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <v>5</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>6</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>102</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>9</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>6</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>6</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>5</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>12</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>11</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>12</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>9</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>6</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>11</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>11</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>435</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>28</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>33</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>39</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>33</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>45</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>40</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>35</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>35</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>39</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <v>27</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>38</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>139</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>6</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>11</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>15</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>15</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>12</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>9</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>12</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>12</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>8</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <v>18</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <v>14</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>166</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>17</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>11</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>22</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>12</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>13</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>12</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>11</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>9</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>16</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <v>13</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="13">
         <v>14</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="13">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>270</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>17</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>17</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>23</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>17</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>22</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>19</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>24</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>33</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>29</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>25</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="13">
         <v>24</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>195</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>33</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>17</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>16</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>19</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>15</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>21</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>9</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>11</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>15</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>14</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <v>12</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>117</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>11</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>12</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>12</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>5</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>6</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>6</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>12</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>9</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>13</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <v>8</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <v>14</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>117</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>7</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>10</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>9</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>13</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>12</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>12</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>6</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>17</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>7</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="13">
         <v>7</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="13">
         <v>7</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>122</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>9</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>10</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>10</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>11</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>14</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>10</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>8</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>13</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>5</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="13">
         <v>9</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="13">
         <v>12</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="13">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>165</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>17</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>27</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>18</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>10</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>13</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>7</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>10</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>11</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>15</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <v>11</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <v>13</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>254</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>12</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>14</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>23</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>27</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>31</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>19</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <v>21</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>26</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <v>18</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <v>24</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="13">
         <v>24</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>161</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>17</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>14</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>16</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <v>11</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>13</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>11</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>7</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>9</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>6</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="13">
         <v>16</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="13">
         <v>25</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="13">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>150</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>13</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>7</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>9</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>7</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>7</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>16</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>11</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>18</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>13</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="13">
         <v>15</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="13">
         <v>21</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>169</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>12</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>15</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>16</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>7</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>9</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>15</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>14</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>26</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <v>16</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="13">
         <v>12</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="13">
         <v>14</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>142</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>8</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>17</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>18</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <v>12</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>11</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>10</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="13">
         <v>12</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="13">
         <v>11</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>12</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="13">
         <v>3</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="13">
         <v>17</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3546,672 +3412,672 @@
     <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-    </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:14" s="37" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>5808</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>2</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>21</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>458</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <v>178</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <v>373</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <v>140</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <v>1</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="36">
         <v>26</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="36">
         <v>17</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="36">
         <v>7</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="36">
         <v>3036</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="36">
         <v>1549</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="38">
         <v>13</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="38">
         <v>1</v>
       </c>
-      <c r="D5" s="39">
-        <v>0</v>
-      </c>
-      <c r="E5" s="39">
+      <c r="D5" s="38">
+        <v>0</v>
+      </c>
+      <c r="E5" s="38">
         <v>2</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <v>1</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>1</v>
       </c>
-      <c r="H5" s="39">
-        <v>0</v>
-      </c>
-      <c r="I5" s="39">
-        <v>0</v>
-      </c>
-      <c r="J5" s="39">
-        <v>0</v>
-      </c>
-      <c r="K5" s="39">
-        <v>0</v>
-      </c>
-      <c r="L5" s="39">
-        <v>0</v>
-      </c>
-      <c r="M5" s="39">
+      <c r="H5" s="38">
+        <v>0</v>
+      </c>
+      <c r="I5" s="38">
+        <v>0</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+      <c r="L5" s="38">
+        <v>0</v>
+      </c>
+      <c r="M5" s="38">
         <v>7</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="38">
         <v>35</v>
       </c>
-      <c r="C6" s="39">
-        <v>0</v>
-      </c>
-      <c r="D6" s="39">
+      <c r="C6" s="38">
+        <v>0</v>
+      </c>
+      <c r="D6" s="38">
         <v>2</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>10</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>5</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>8</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>1</v>
       </c>
-      <c r="I6" s="39">
-        <v>0</v>
-      </c>
-      <c r="J6" s="39">
-        <v>0</v>
-      </c>
-      <c r="K6" s="39">
-        <v>0</v>
-      </c>
-      <c r="L6" s="39">
-        <v>0</v>
-      </c>
-      <c r="M6" s="39">
+      <c r="I6" s="38">
+        <v>0</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0</v>
+      </c>
+      <c r="K6" s="38">
+        <v>0</v>
+      </c>
+      <c r="L6" s="38">
+        <v>0</v>
+      </c>
+      <c r="M6" s="38">
         <v>8</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <v>413</v>
       </c>
-      <c r="C7" s="39">
-        <v>0</v>
-      </c>
-      <c r="D7" s="39">
+      <c r="C7" s="38">
+        <v>0</v>
+      </c>
+      <c r="D7" s="38">
         <v>10</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>137</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="38">
         <v>27</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <v>44</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="38">
         <v>8</v>
       </c>
-      <c r="I7" s="39">
-        <v>0</v>
-      </c>
-      <c r="J7" s="39">
-        <v>0</v>
-      </c>
-      <c r="K7" s="39">
-        <v>0</v>
-      </c>
-      <c r="L7" s="39">
-        <v>0</v>
-      </c>
-      <c r="M7" s="39">
+      <c r="I7" s="38">
+        <v>0</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0</v>
+      </c>
+      <c r="K7" s="38">
+        <v>0</v>
+      </c>
+      <c r="L7" s="38">
+        <v>0</v>
+      </c>
+      <c r="M7" s="38">
         <v>159</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="38">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="38">
         <v>342</v>
       </c>
-      <c r="C8" s="39">
-        <v>0</v>
-      </c>
-      <c r="D8" s="39">
-        <v>0</v>
-      </c>
-      <c r="E8" s="39">
+      <c r="C8" s="38">
+        <v>0</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0</v>
+      </c>
+      <c r="E8" s="38">
         <v>63</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <v>42</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <v>67</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="38">
         <v>4</v>
       </c>
-      <c r="I8" s="39">
-        <v>0</v>
-      </c>
-      <c r="J8" s="39">
+      <c r="I8" s="38">
+        <v>0</v>
+      </c>
+      <c r="J8" s="38">
         <v>1</v>
       </c>
-      <c r="K8" s="39">
-        <v>0</v>
-      </c>
-      <c r="L8" s="39">
-        <v>0</v>
-      </c>
-      <c r="M8" s="39">
+      <c r="K8" s="38">
+        <v>0</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0</v>
+      </c>
+      <c r="M8" s="38">
         <v>150</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="38">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>221</v>
       </c>
-      <c r="C9" s="39">
-        <v>0</v>
-      </c>
-      <c r="D9" s="39">
-        <v>0</v>
-      </c>
-      <c r="E9" s="39">
+      <c r="C9" s="38">
+        <v>0</v>
+      </c>
+      <c r="D9" s="38">
+        <v>0</v>
+      </c>
+      <c r="E9" s="38">
         <v>24</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>15</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <v>49</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="38">
         <v>6</v>
       </c>
-      <c r="I9" s="39">
-        <v>0</v>
-      </c>
-      <c r="J9" s="39">
-        <v>0</v>
-      </c>
-      <c r="K9" s="39">
-        <v>0</v>
-      </c>
-      <c r="L9" s="39">
-        <v>0</v>
-      </c>
-      <c r="M9" s="39">
+      <c r="I9" s="38">
+        <v>0</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0</v>
+      </c>
+      <c r="K9" s="38">
+        <v>0</v>
+      </c>
+      <c r="L9" s="38">
+        <v>0</v>
+      </c>
+      <c r="M9" s="38">
         <v>112</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="38">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="38">
         <v>366</v>
       </c>
-      <c r="C10" s="39">
-        <v>0</v>
-      </c>
-      <c r="D10" s="39">
+      <c r="C10" s="38">
+        <v>0</v>
+      </c>
+      <c r="D10" s="38">
         <v>2</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="38">
         <v>33</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <v>15</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <v>34</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>47</v>
       </c>
-      <c r="I10" s="39">
-        <v>0</v>
-      </c>
-      <c r="J10" s="39">
+      <c r="I10" s="38">
+        <v>0</v>
+      </c>
+      <c r="J10" s="38">
         <v>3</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="38">
         <v>1</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="38">
         <v>2</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="38">
         <v>206</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="38">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="38">
         <v>17</v>
       </c>
-      <c r="C11" s="39">
-        <v>0</v>
-      </c>
-      <c r="D11" s="39">
-        <v>0</v>
-      </c>
-      <c r="E11" s="39">
+      <c r="C11" s="38">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0</v>
+      </c>
+      <c r="E11" s="38">
         <v>2</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="38">
         <v>1</v>
       </c>
-      <c r="G11" s="39">
-        <v>0</v>
-      </c>
-      <c r="H11" s="39">
-        <v>0</v>
-      </c>
-      <c r="I11" s="39">
-        <v>0</v>
-      </c>
-      <c r="J11" s="39">
-        <v>0</v>
-      </c>
-      <c r="K11" s="39">
-        <v>0</v>
-      </c>
-      <c r="L11" s="39">
-        <v>0</v>
-      </c>
-      <c r="M11" s="39">
+      <c r="G11" s="38">
+        <v>0</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0</v>
+      </c>
+      <c r="L11" s="38">
+        <v>0</v>
+      </c>
+      <c r="M11" s="38">
         <v>11</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="38">
         <v>326</v>
       </c>
-      <c r="C12" s="39">
-        <v>0</v>
-      </c>
-      <c r="D12" s="39">
-        <v>0</v>
-      </c>
-      <c r="E12" s="39">
+      <c r="C12" s="38">
+        <v>0</v>
+      </c>
+      <c r="D12" s="38">
+        <v>0</v>
+      </c>
+      <c r="E12" s="38">
         <v>19</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="38">
         <v>14</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>26</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="38">
         <v>12</v>
       </c>
-      <c r="I12" s="39">
-        <v>0</v>
-      </c>
-      <c r="J12" s="39">
+      <c r="I12" s="38">
+        <v>0</v>
+      </c>
+      <c r="J12" s="38">
         <v>4</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="38">
         <v>1</v>
       </c>
-      <c r="L12" s="39">
-        <v>0</v>
-      </c>
-      <c r="M12" s="39">
+      <c r="L12" s="38">
+        <v>0</v>
+      </c>
+      <c r="M12" s="38">
         <v>221</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="38">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="38">
         <v>150</v>
       </c>
-      <c r="C13" s="39">
-        <v>0</v>
-      </c>
-      <c r="D13" s="39">
-        <v>0</v>
-      </c>
-      <c r="E13" s="39">
+      <c r="C13" s="38">
+        <v>0</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0</v>
+      </c>
+      <c r="E13" s="38">
         <v>8</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="38">
         <v>2</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <v>6</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="38">
         <v>8</v>
       </c>
-      <c r="I13" s="39">
-        <v>0</v>
-      </c>
-      <c r="J13" s="39">
+      <c r="I13" s="38">
+        <v>0</v>
+      </c>
+      <c r="J13" s="38">
         <v>3</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="38">
         <v>2</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="38">
         <v>1</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="38">
         <v>106</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="38">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="38">
         <v>868</v>
       </c>
-      <c r="C14" s="39">
-        <v>0</v>
-      </c>
-      <c r="D14" s="39">
-        <v>0</v>
-      </c>
-      <c r="E14" s="39">
+      <c r="C14" s="38">
+        <v>0</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0</v>
+      </c>
+      <c r="E14" s="38">
         <v>19</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="38">
         <v>14</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <v>18</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="38">
         <v>15</v>
       </c>
-      <c r="I14" s="39">
-        <v>0</v>
-      </c>
-      <c r="J14" s="39">
+      <c r="I14" s="38">
+        <v>0</v>
+      </c>
+      <c r="J14" s="38">
         <v>3</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="38">
         <v>10</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="38">
         <v>3</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="38">
         <v>669</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="38">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="38">
         <v>1730</v>
       </c>
-      <c r="C15" s="39">
-        <v>0</v>
-      </c>
-      <c r="D15" s="39">
+      <c r="C15" s="38">
+        <v>0</v>
+      </c>
+      <c r="D15" s="38">
         <v>6</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="38">
         <v>123</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="38">
         <v>36</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <v>109</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="38">
         <v>30</v>
       </c>
-      <c r="I15" s="39">
-        <v>0</v>
-      </c>
-      <c r="J15" s="39">
+      <c r="I15" s="38">
+        <v>0</v>
+      </c>
+      <c r="J15" s="38">
         <v>12</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="38">
         <v>2</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="38">
         <v>1</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="38">
         <v>1292</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="38">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="38">
         <v>1327</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="38">
         <v>1</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <v>1</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="38">
         <v>18</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="38">
         <v>6</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="38">
         <v>11</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="38">
         <v>9</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="38">
         <v>1</v>
       </c>
-      <c r="J16" s="39">
-        <v>0</v>
-      </c>
-      <c r="K16" s="39">
+      <c r="J16" s="38">
+        <v>0</v>
+      </c>
+      <c r="K16" s="38">
         <v>1</v>
       </c>
-      <c r="L16" s="39">
-        <v>0</v>
-      </c>
-      <c r="M16" s="39">
+      <c r="L16" s="38">
+        <v>0</v>
+      </c>
+      <c r="M16" s="38">
         <v>95</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="38">
         <v>1184</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4241,1473 +4107,1473 @@
     <col min="15" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>5808</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>443</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>509</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>589</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>402</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>556</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>499</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <v>515</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <v>586</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <v>475</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="24">
         <v>524</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="24">
         <v>426</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="24">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>143</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>19</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>32</v>
       </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
         <v>30</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>1</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>25</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="23">
         <v>21</v>
       </c>
-      <c r="L4" s="23">
-        <v>0</v>
-      </c>
-      <c r="M4" s="23">
-        <v>0</v>
-      </c>
-      <c r="N4" s="23">
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>193</v>
       </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
         <v>24</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>32</v>
       </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
         <v>28</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>19</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>1</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>34</v>
       </c>
-      <c r="K5" s="24">
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
+      <c r="K5" s="23">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
         <v>30</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="22">
         <v>25</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>246</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>18</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>32</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>16</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>32</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>24</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>1</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>35</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>31</v>
       </c>
-      <c r="K6" s="24">
-        <v>0</v>
-      </c>
-      <c r="L6" s="23">
+      <c r="K6" s="23">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
         <v>16</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="22">
         <v>41</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>162</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>7</v>
       </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
         <v>21</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>21</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>1</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>23</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>18</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="23">
         <v>22</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="22">
         <v>22</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="22">
         <v>1</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="22">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>184</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>11</v>
       </c>
-      <c r="D8" s="23">
-        <v>0</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
         <v>1</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>24</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>25</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>25</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>22</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>1</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="23">
         <v>25</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="22">
         <v>31</v>
       </c>
-      <c r="M8" s="23">
-        <v>0</v>
-      </c>
-      <c r="N8" s="23">
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>227</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>11</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>24</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>33</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>26</v>
       </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="23">
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
         <v>19</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>24</v>
       </c>
-      <c r="J9" s="23">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
         <v>26</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="22">
         <v>14</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="22">
         <v>27</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="22">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>197</v>
       </c>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
         <v>21</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>22</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>25</v>
       </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23">
+      <c r="G10" s="22">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
         <v>19</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>15</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>27</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="23">
         <v>34</v>
       </c>
-      <c r="L10" s="23">
-        <v>0</v>
-      </c>
-      <c r="M10" s="23">
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="22">
         <v>22</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="22">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>180</v>
       </c>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
         <v>30</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>20</v>
       </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
         <v>35</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>24</v>
       </c>
-      <c r="I11" s="23">
-        <v>0</v>
-      </c>
-      <c r="J11" s="23">
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
         <v>27</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="23">
         <v>18</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="22">
         <v>1</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="22">
         <v>19</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>170</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>22</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>20</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>25</v>
       </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
         <v>23</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>21</v>
       </c>
-      <c r="I12" s="23">
-        <v>0</v>
-      </c>
-      <c r="J12" s="23">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
         <v>26</v>
       </c>
-      <c r="K12" s="24">
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
+      <c r="K12" s="23">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22">
         <v>18</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="22">
         <v>14</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>221</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>35</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>21</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>20</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>27</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>4</v>
       </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
         <v>39</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>26</v>
       </c>
-      <c r="K13" s="24">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
+      <c r="K13" s="23">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22">
         <v>27</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="22">
         <v>22</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>162</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>23</v>
       </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
         <v>14</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>25</v>
       </c>
-      <c r="H14" s="23">
-        <v>0</v>
-      </c>
-      <c r="I14" s="23">
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
         <v>24</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>15</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="23">
         <v>34</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="22">
         <v>7</v>
       </c>
-      <c r="M14" s="23">
-        <v>0</v>
-      </c>
-      <c r="N14" s="23">
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>183</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>25</v>
       </c>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23">
+      <c r="D15" s="22">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
         <v>2</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>18</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>44</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>23</v>
       </c>
-      <c r="J15" s="23">
-        <v>0</v>
-      </c>
-      <c r="K15" s="24">
+      <c r="J15" s="22">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23">
         <v>25</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="22">
         <v>36</v>
       </c>
-      <c r="M15" s="23">
-        <v>0</v>
-      </c>
-      <c r="N15" s="23">
+      <c r="M15" s="22">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>199</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>12</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>29</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>19</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>2</v>
       </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23">
+      <c r="G16" s="22">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
         <v>17</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>27</v>
       </c>
-      <c r="J16" s="23">
-        <v>0</v>
-      </c>
-      <c r="K16" s="24">
+      <c r="J16" s="22">
+        <v>0</v>
+      </c>
+      <c r="K16" s="23">
         <v>25</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="22">
         <v>27</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="22">
         <v>23</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="22">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>158</v>
       </c>
-      <c r="C17" s="23">
-        <v>0</v>
-      </c>
-      <c r="D17" s="23">
+      <c r="C17" s="22">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22">
         <v>21</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>30</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>2</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>1</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>19</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>19</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>18</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="23">
         <v>22</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="22">
         <v>1</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="22">
         <v>11</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="22">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>172</v>
       </c>
-      <c r="C18" s="23">
-        <v>0</v>
-      </c>
-      <c r="D18" s="23">
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
         <v>24</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>29</v>
       </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="F18" s="22">
+        <v>0</v>
+      </c>
+      <c r="G18" s="22">
         <v>34</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>39</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>1</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>17</v>
       </c>
-      <c r="K18" s="24">
-        <v>0</v>
-      </c>
-      <c r="L18" s="23">
-        <v>0</v>
-      </c>
-      <c r="M18" s="23">
+      <c r="K18" s="23">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0</v>
+      </c>
+      <c r="M18" s="22">
         <v>17</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="22">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>188</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>25</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>24</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>22</v>
       </c>
-      <c r="F19" s="23">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23">
+      <c r="F19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
         <v>22</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>16</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>1</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>23</v>
       </c>
-      <c r="K19" s="24">
-        <v>0</v>
-      </c>
-      <c r="L19" s="23">
+      <c r="K19" s="23">
+        <v>0</v>
+      </c>
+      <c r="L19" s="22">
         <v>37</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="22">
         <v>18</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>212</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>17</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>17</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>13</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>38</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>30</v>
       </c>
-      <c r="H20" s="23">
-        <v>0</v>
-      </c>
-      <c r="I20" s="23">
+      <c r="H20" s="22">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22">
         <v>28</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>26</v>
       </c>
-      <c r="K20" s="24">
-        <v>0</v>
-      </c>
-      <c r="L20" s="23">
+      <c r="K20" s="23">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22">
         <v>23</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="22">
         <v>20</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>155</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>10</v>
       </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
         <v>28</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>18</v>
       </c>
-      <c r="H21" s="23">
-        <v>0</v>
-      </c>
-      <c r="I21" s="23">
+      <c r="H21" s="22">
+        <v>0</v>
+      </c>
+      <c r="I21" s="22">
         <v>17</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>25</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="23">
         <v>20</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="22">
         <v>21</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="22">
         <v>1</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="22">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>176</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>27</v>
       </c>
-      <c r="D22" s="23">
-        <v>0</v>
-      </c>
-      <c r="E22" s="23">
-        <v>0</v>
-      </c>
-      <c r="F22" s="23">
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22">
         <v>14</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>24</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>16</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>19</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>1</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="23">
         <v>22</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="22">
         <v>37</v>
       </c>
-      <c r="M22" s="23">
-        <v>0</v>
-      </c>
-      <c r="N22" s="23">
+      <c r="M22" s="22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="22">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>231</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>26</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>38</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>42</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>21</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>2</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>22</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>19</v>
       </c>
-      <c r="J23" s="23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="24">
+      <c r="J23" s="22">
+        <v>0</v>
+      </c>
+      <c r="K23" s="23">
         <v>21</v>
       </c>
-      <c r="L23" s="23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="23">
+      <c r="L23" s="22">
+        <v>0</v>
+      </c>
+      <c r="M23" s="22">
         <v>20</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="22">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>196</v>
       </c>
-      <c r="C24" s="23">
-        <v>0</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22">
         <v>33</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>14</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>16</v>
       </c>
-      <c r="G24" s="23">
-        <v>0</v>
-      </c>
-      <c r="H24" s="23">
+      <c r="G24" s="22">
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
         <v>21</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>28</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>38</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="23">
         <v>18</v>
       </c>
-      <c r="L24" s="23">
-        <v>0</v>
-      </c>
-      <c r="M24" s="23">
+      <c r="L24" s="22">
+        <v>0</v>
+      </c>
+      <c r="M24" s="22">
         <v>16</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="22">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>204</v>
       </c>
-      <c r="C25" s="23">
-        <v>0</v>
-      </c>
-      <c r="D25" s="23">
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="22">
         <v>25</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>29</v>
       </c>
-      <c r="F25" s="23">
-        <v>0</v>
-      </c>
-      <c r="G25" s="23">
+      <c r="F25" s="22">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22">
         <v>37</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>25</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>1</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>32</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="23">
         <v>29</v>
       </c>
-      <c r="L25" s="23">
-        <v>0</v>
-      </c>
-      <c r="M25" s="23">
+      <c r="L25" s="22">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
         <v>12</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="22">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>190</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>31</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <v>24</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>31</v>
       </c>
-      <c r="F26" s="23">
-        <v>0</v>
-      </c>
-      <c r="G26" s="23">
+      <c r="F26" s="22">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
         <v>31</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>11</v>
       </c>
-      <c r="I26" s="23">
-        <v>0</v>
-      </c>
-      <c r="J26" s="23">
+      <c r="I26" s="22">
+        <v>0</v>
+      </c>
+      <c r="J26" s="22">
         <v>17</v>
       </c>
-      <c r="K26" s="24">
-        <v>0</v>
-      </c>
-      <c r="L26" s="23">
+      <c r="K26" s="23">
+        <v>0</v>
+      </c>
+      <c r="L26" s="22">
         <v>29</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="22">
         <v>16</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <v>24</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>216</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>17</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>20</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>29</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>30</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="22">
         <v>26</v>
       </c>
-      <c r="H27" s="23">
-        <v>0</v>
-      </c>
-      <c r="I27" s="23">
+      <c r="H27" s="22">
+        <v>0</v>
+      </c>
+      <c r="I27" s="22">
         <v>35</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>18</v>
       </c>
-      <c r="K27" s="24">
-        <v>0</v>
-      </c>
-      <c r="L27" s="23">
+      <c r="K27" s="23">
+        <v>0</v>
+      </c>
+      <c r="L27" s="22">
         <v>21</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="22">
         <v>20</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>25</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>175</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>21</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <v>1</v>
       </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
         <v>19</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="22">
         <v>30</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="22">
         <v>1</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>24</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>24</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="23">
         <v>16</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="22">
         <v>39</v>
       </c>
-      <c r="M28" s="23">
-        <v>0</v>
-      </c>
-      <c r="N28" s="23">
+      <c r="M28" s="22">
+        <v>0</v>
+      </c>
+      <c r="N28" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <v>26</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>164</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="22">
         <v>22</v>
       </c>
-      <c r="D29" s="23">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
+      <c r="D29" s="22">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
         <v>16</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <v>22</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <v>39</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>21</v>
       </c>
-      <c r="J29" s="23">
-        <v>0</v>
-      </c>
-      <c r="K29" s="24">
+      <c r="J29" s="22">
+        <v>0</v>
+      </c>
+      <c r="K29" s="23">
         <v>22</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="22">
         <v>22</v>
       </c>
-      <c r="M29" s="23">
-        <v>0</v>
-      </c>
-      <c r="N29" s="23">
+      <c r="M29" s="22">
+        <v>0</v>
+      </c>
+      <c r="N29" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>27</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>261</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <v>35</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <v>34</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>25</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <v>23</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <v>1</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="22">
         <v>27</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>35</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>1</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="23">
         <v>30</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="22">
         <v>17</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="22">
         <v>23</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>28</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>187</v>
       </c>
-      <c r="C31" s="23">
-        <v>0</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
+      <c r="D31" s="22">
         <v>28</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>28</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <v>21</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="22">
         <v>1</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <v>18</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>11</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>27</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="23">
         <v>26</v>
       </c>
-      <c r="L31" s="23">
-        <v>0</v>
-      </c>
-      <c r="M31" s="23">
+      <c r="L31" s="22">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
         <v>14</v>
       </c>
-      <c r="N31" s="23">
+      <c r="N31" s="22">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>29</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <v>155</v>
       </c>
-      <c r="C32" s="23">
-        <v>0</v>
-      </c>
-      <c r="D32" s="23">
-        <v>0</v>
-      </c>
-      <c r="E32" s="23">
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
         <v>24</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <v>1</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="22">
         <v>24</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <v>25</v>
       </c>
-      <c r="I32" s="23">
-        <v>0</v>
-      </c>
-      <c r="J32" s="23">
+      <c r="I32" s="22">
+        <v>0</v>
+      </c>
+      <c r="J32" s="22">
         <v>29</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="23">
         <v>19</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="22">
         <v>1</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="22">
         <v>22</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <v>164</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="22">
         <v>24</v>
       </c>
-      <c r="D33" s="23">
-        <v>0</v>
-      </c>
-      <c r="E33" s="23">
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
         <v>33</v>
       </c>
-      <c r="F33" s="23">
-        <v>0</v>
-      </c>
-      <c r="G33" s="23">
+      <c r="F33" s="22">
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
         <v>27</v>
       </c>
-      <c r="H33" s="23">
-        <v>0</v>
-      </c>
-      <c r="I33" s="23">
-        <v>0</v>
-      </c>
-      <c r="J33" s="23">
+      <c r="H33" s="22">
+        <v>0</v>
+      </c>
+      <c r="I33" s="22">
+        <v>0</v>
+      </c>
+      <c r="J33" s="22">
         <v>32</v>
       </c>
-      <c r="K33" s="24">
-        <v>0</v>
-      </c>
-      <c r="L33" s="23">
+      <c r="K33" s="23">
+        <v>0</v>
+      </c>
+      <c r="L33" s="22">
         <v>26</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="22">
         <v>22</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N33" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
+      <c r="A34" s="18">
         <v>31</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <v>137</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <v>23</v>
       </c>
-      <c r="D34" s="23">
-        <v>0</v>
-      </c>
-      <c r="E34" s="23">
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
         <v>20</v>
       </c>
-      <c r="F34" s="23">
-        <v>0</v>
-      </c>
-      <c r="G34" s="23">
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
         <v>23</v>
       </c>
-      <c r="H34" s="23">
-        <v>0</v>
-      </c>
-      <c r="I34" s="23">
+      <c r="H34" s="22">
+        <v>0</v>
+      </c>
+      <c r="I34" s="22">
         <v>22</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>28</v>
       </c>
-      <c r="K34" s="24">
-        <v>0</v>
-      </c>
-      <c r="L34" s="23">
+      <c r="K34" s="23">
+        <v>0</v>
+      </c>
+      <c r="L34" s="22">
         <v>21</v>
       </c>
-      <c r="M34" s="23">
-        <v>0</v>
-      </c>
-      <c r="N34" s="23">
+      <c r="M34" s="22">
+        <v>0</v>
+      </c>
+      <c r="N34" s="22">
         <v>0</v>
       </c>
     </row>

--- a/DATOS/Divorcios2017.xlsx
+++ b/DATOS/Divorcios2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue\Desktop\PROYECTO\Proyecto-AnalisisExploratorioClustering-MineriaDeDatos\DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBEB27A-B631-4D97-9FDF-E9E205D4756A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E480F-0F4E-460E-9AB1-E4F16C5DF686}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" tabRatio="714" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" tabRatio="714" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contenido" sheetId="15" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Mes ocurrencia y día" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Mes de registro y departamento'!$A$1:$N$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Mes de registro y departamento'!$A$1:$N$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Mes ocurrencia y día'!$A$1:$N$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Pueblo del hombre y mujer'!$A$1:$E$7</definedName>
   </definedNames>
@@ -308,13 +308,13 @@
     <t>Divorcios por pueblo de pertenencia del hombre, según pueblo de pertenencia de la mujer, año 2017</t>
   </si>
   <si>
-    <t>Divorcios por mes de registro, según departamento de registro, año 2017</t>
-  </si>
-  <si>
     <t>Divorcios por subgrupos ocupacionales de la mujer, según subgrupos ocupacionales del hombre, año 2017</t>
   </si>
   <si>
     <t>Divorcios por mes de ocurrencia, según día de ocurrencia, año 2017</t>
+  </si>
+  <si>
+    <t>Menos de 15</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -627,6 +627,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
@@ -635,9 +638,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -652,6 +652,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,7 +779,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1340,17 +1343,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -1367,76 +1370,76 @@
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1461,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1557,74 +1560,74 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="20">
-        <v>79</v>
-      </c>
-      <c r="C3" s="20">
-        <v>5</v>
-      </c>
-      <c r="D3" s="20">
-        <v>45</v>
-      </c>
-      <c r="E3" s="20">
-        <v>20</v>
-      </c>
-      <c r="F3" s="20">
-        <v>5</v>
-      </c>
-      <c r="G3" s="20">
-        <v>3</v>
-      </c>
-      <c r="H3" s="20">
-        <v>1</v>
-      </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="20">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="C4" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="20">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="E4" s="20">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="F4" s="20">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="G4" s="20">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H4" s="20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I4" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="20">
         <v>0</v>
@@ -1633,206 +1636,206 @@
         <v>0</v>
       </c>
       <c r="L4" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="20">
-        <v>741</v>
+        <v>549</v>
       </c>
       <c r="C5" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="20">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="E5" s="20">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="F5" s="20">
-        <v>265</v>
+        <v>83</v>
       </c>
       <c r="G5" s="20">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H5" s="20">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="I5" s="20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L5" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="20">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="20">
-        <v>597</v>
+        <v>741</v>
       </c>
       <c r="C6" s="20">
         <v>0</v>
       </c>
       <c r="D6" s="20">
+        <v>43</v>
+      </c>
+      <c r="E6" s="20">
+        <v>301</v>
+      </c>
+      <c r="F6" s="20">
+        <v>265</v>
+      </c>
+      <c r="G6" s="20">
+        <v>74</v>
+      </c>
+      <c r="H6" s="20">
+        <v>29</v>
+      </c>
+      <c r="I6" s="20">
         <v>7</v>
       </c>
-      <c r="E6" s="20">
-        <v>78</v>
-      </c>
-      <c r="F6" s="20">
-        <v>227</v>
-      </c>
-      <c r="G6" s="20">
-        <v>159</v>
-      </c>
-      <c r="H6" s="20">
-        <v>55</v>
-      </c>
-      <c r="I6" s="20">
-        <v>14</v>
-      </c>
       <c r="J6" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K6" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" s="20">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="20">
-        <v>355</v>
+        <v>597</v>
       </c>
       <c r="C7" s="20">
         <v>0</v>
       </c>
       <c r="D7" s="20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" s="20">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F7" s="20">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="G7" s="20">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="H7" s="20">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I7" s="20">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J7" s="20">
+        <v>7</v>
+      </c>
+      <c r="K7" s="20">
+        <v>6</v>
+      </c>
+      <c r="L7" s="20">
         <v>3</v>
       </c>
-      <c r="K7" s="20">
-        <v>4</v>
-      </c>
-      <c r="L7" s="20">
-        <v>2</v>
-      </c>
       <c r="M7" s="20">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="20">
-        <v>231</v>
+        <v>355</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
       </c>
       <c r="D8" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="20">
+        <v>20</v>
+      </c>
+      <c r="F8" s="20">
+        <v>54</v>
+      </c>
+      <c r="G8" s="20">
+        <v>132</v>
+      </c>
+      <c r="H8" s="20">
+        <v>78</v>
+      </c>
+      <c r="I8" s="20">
+        <v>22</v>
+      </c>
+      <c r="J8" s="20">
+        <v>3</v>
+      </c>
+      <c r="K8" s="20">
         <v>4</v>
       </c>
-      <c r="F8" s="20">
-        <v>11</v>
-      </c>
-      <c r="G8" s="20">
-        <v>30</v>
-      </c>
-      <c r="H8" s="20">
-        <v>57</v>
-      </c>
-      <c r="I8" s="20">
-        <v>50</v>
-      </c>
-      <c r="J8" s="20">
-        <v>19</v>
-      </c>
-      <c r="K8" s="20">
-        <v>14</v>
-      </c>
       <c r="L8" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" s="20">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="20">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
       </c>
       <c r="D9" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G9" s="20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H9" s="20">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="I9" s="20">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J9" s="20">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K9" s="20">
         <v>14</v>
@@ -1841,97 +1844,97 @@
         <v>5</v>
       </c>
       <c r="M9" s="20">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="20">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
       </c>
       <c r="D10" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" s="20">
+        <v>3</v>
+      </c>
+      <c r="H10" s="20">
+        <v>14</v>
+      </c>
+      <c r="I10" s="20">
+        <v>41</v>
+      </c>
+      <c r="J10" s="20">
+        <v>26</v>
+      </c>
+      <c r="K10" s="20">
+        <v>14</v>
+      </c>
+      <c r="L10" s="20">
         <v>5</v>
       </c>
-      <c r="H10" s="20">
-        <v>6</v>
-      </c>
-      <c r="I10" s="20">
-        <v>8</v>
-      </c>
-      <c r="J10" s="20">
-        <v>17</v>
-      </c>
-      <c r="K10" s="20">
-        <v>25</v>
-      </c>
-      <c r="L10" s="20">
-        <v>12</v>
-      </c>
       <c r="M10" s="20">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="20">
+        <v>83</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>5</v>
+      </c>
+      <c r="H11" s="20">
+        <v>6</v>
+      </c>
+      <c r="I11" s="20">
+        <v>8</v>
+      </c>
+      <c r="J11" s="20">
         <v>17</v>
       </c>
-      <c r="B11" s="20">
-        <v>47</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <v>1</v>
-      </c>
-      <c r="I11" s="20">
-        <v>5</v>
-      </c>
-      <c r="J11" s="20">
-        <v>5</v>
-      </c>
       <c r="K11" s="20">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L11" s="20">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M11" s="20">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B12" s="20">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C12" s="20">
         <v>0</v>
@@ -1949,62 +1952,103 @@
         <v>0</v>
       </c>
       <c r="H12" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12" s="20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L12" s="20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="20">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="20">
+        <v>29</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <v>1</v>
+      </c>
+      <c r="K13" s="20">
+        <v>1</v>
+      </c>
+      <c r="L13" s="20">
+        <v>23</v>
+      </c>
+      <c r="M13" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B14" s="20">
         <v>2955</v>
       </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E14" s="20">
         <v>4</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F14" s="20">
         <v>22</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G14" s="20">
         <v>38</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H14" s="20">
         <v>52</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I14" s="20">
         <v>27</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J14" s="20">
         <v>22</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K14" s="20">
         <v>15</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L14" s="20">
         <v>19</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M14" s="20">
         <v>2755</v>
       </c>
     </row>
@@ -2293,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2306,218 +2350,244 @@
     <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B2" s="19">
         <v>5808</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C2" s="19">
         <v>428</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D2" s="19">
         <v>469</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E2" s="19">
         <v>531</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F2" s="19">
         <v>445</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G2" s="19">
         <v>570</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H2" s="19">
         <v>476</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I2" s="19">
         <v>434</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J2" s="19">
         <v>508</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K2" s="19">
         <v>489</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L2" s="19">
         <v>508</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M2" s="19">
         <v>492</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N2" s="19">
         <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2179</v>
+      </c>
+      <c r="C3" s="13">
+        <v>160</v>
+      </c>
+      <c r="D3" s="13">
+        <v>186</v>
+      </c>
+      <c r="E3" s="13">
+        <v>189</v>
+      </c>
+      <c r="F3" s="13">
+        <v>177</v>
+      </c>
+      <c r="G3" s="13">
+        <v>237</v>
+      </c>
+      <c r="H3" s="13">
+        <v>178</v>
+      </c>
+      <c r="I3" s="13">
+        <v>162</v>
+      </c>
+      <c r="J3" s="13">
+        <v>172</v>
+      </c>
+      <c r="K3" s="13">
+        <v>199</v>
+      </c>
+      <c r="L3" s="13">
+        <v>208</v>
+      </c>
+      <c r="M3" s="13">
+        <v>150</v>
+      </c>
+      <c r="N3" s="13">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13">
-        <v>2179</v>
+        <v>106</v>
       </c>
       <c r="C4" s="13">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="D4" s="13">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="F4" s="13">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="G4" s="13">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="H4" s="13">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="I4" s="13">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="J4" s="13">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="K4" s="13">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="L4" s="13">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="M4" s="13">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="N4" s="13">
-        <v>161</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B5" s="13">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C5" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="13">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="13">
         <v>12</v>
       </c>
-      <c r="F5" s="13">
-        <v>6</v>
-      </c>
       <c r="G5" s="13">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H5" s="13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I5" s="13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J5" s="13">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K5" s="13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L5" s="13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M5" s="13">
+        <v>10</v>
+      </c>
+      <c r="N5" s="13">
         <v>7</v>
-      </c>
-      <c r="N5" s="13">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B6" s="13">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C6" s="13">
         <v>6</v>
       </c>
       <c r="D6" s="13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E6" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="13">
         <v>15</v>
@@ -2526,151 +2596,151 @@
         <v>12</v>
       </c>
       <c r="I6" s="13">
+        <v>5</v>
+      </c>
+      <c r="J6" s="13">
+        <v>18</v>
+      </c>
+      <c r="K6" s="13">
+        <v>10</v>
+      </c>
+      <c r="L6" s="13">
         <v>11</v>
       </c>
-      <c r="J6" s="13">
-        <v>16</v>
-      </c>
-      <c r="K6" s="13">
-        <v>15</v>
-      </c>
-      <c r="L6" s="13">
-        <v>16</v>
-      </c>
       <c r="M6" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N6" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13">
+        <v>332</v>
+      </c>
+      <c r="C7" s="13">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13">
+        <v>24</v>
+      </c>
+      <c r="E7" s="13">
+        <v>38</v>
+      </c>
+      <c r="F7" s="13">
+        <v>15</v>
+      </c>
+      <c r="G7" s="13">
+        <v>37</v>
+      </c>
+      <c r="H7" s="13">
+        <v>34</v>
+      </c>
+      <c r="I7" s="13">
+        <v>40</v>
+      </c>
+      <c r="J7" s="13">
+        <v>24</v>
+      </c>
+      <c r="K7" s="13">
         <v>20</v>
       </c>
-      <c r="B7" s="13">
-        <v>130</v>
-      </c>
-      <c r="C7" s="13">
-        <v>6</v>
-      </c>
-      <c r="D7" s="13">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13">
-        <v>12</v>
-      </c>
-      <c r="F7" s="13">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13">
-        <v>15</v>
-      </c>
-      <c r="H7" s="13">
-        <v>12</v>
-      </c>
-      <c r="I7" s="13">
-        <v>5</v>
-      </c>
-      <c r="J7" s="13">
-        <v>18</v>
-      </c>
-      <c r="K7" s="13">
-        <v>10</v>
-      </c>
       <c r="L7" s="13">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M7" s="13">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N7" s="13">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="13">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="C8" s="13">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D8" s="13">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E8" s="13">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F8" s="13">
+        <v>13</v>
+      </c>
+      <c r="G8" s="13">
+        <v>17</v>
+      </c>
+      <c r="H8" s="13">
+        <v>12</v>
+      </c>
+      <c r="I8" s="13">
+        <v>6</v>
+      </c>
+      <c r="J8" s="13">
+        <v>17</v>
+      </c>
+      <c r="K8" s="13">
         <v>15</v>
       </c>
-      <c r="G8" s="13">
-        <v>37</v>
-      </c>
-      <c r="H8" s="13">
-        <v>34</v>
-      </c>
-      <c r="I8" s="13">
-        <v>40</v>
-      </c>
-      <c r="J8" s="13">
-        <v>24</v>
-      </c>
-      <c r="K8" s="13">
-        <v>20</v>
-      </c>
       <c r="L8" s="13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M8" s="13">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N8" s="13">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B9" s="13">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="C9" s="13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D9" s="13">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13">
+        <v>7</v>
+      </c>
+      <c r="G9" s="13">
         <v>8</v>
       </c>
-      <c r="E9" s="13">
-        <v>11</v>
-      </c>
-      <c r="F9" s="13">
-        <v>13</v>
-      </c>
-      <c r="G9" s="13">
-        <v>17</v>
-      </c>
       <c r="H9" s="13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I9" s="13">
+        <v>3</v>
+      </c>
+      <c r="J9" s="13">
+        <v>8</v>
+      </c>
+      <c r="K9" s="13">
+        <v>3</v>
+      </c>
+      <c r="L9" s="13">
+        <v>5</v>
+      </c>
+      <c r="M9" s="13">
         <v>6</v>
-      </c>
-      <c r="J9" s="13">
-        <v>17</v>
-      </c>
-      <c r="K9" s="13">
-        <v>15</v>
-      </c>
-      <c r="L9" s="13">
-        <v>13</v>
-      </c>
-      <c r="M9" s="13">
-        <v>17</v>
       </c>
       <c r="N9" s="13">
         <v>9</v>
@@ -2678,615 +2748,615 @@
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" s="13">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13">
+        <v>6</v>
+      </c>
+      <c r="E10" s="13">
+        <v>6</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13">
+        <v>12</v>
+      </c>
+      <c r="H10" s="13">
+        <v>11</v>
+      </c>
+      <c r="I10" s="13">
+        <v>12</v>
+      </c>
+      <c r="J10" s="13">
+        <v>9</v>
+      </c>
+      <c r="K10" s="13">
+        <v>6</v>
+      </c>
+      <c r="L10" s="13">
+        <v>11</v>
+      </c>
+      <c r="M10" s="13">
+        <v>11</v>
+      </c>
+      <c r="N10" s="13">
         <v>4</v>
-      </c>
-      <c r="D10" s="13">
-        <v>3</v>
-      </c>
-      <c r="E10" s="13">
-        <v>9</v>
-      </c>
-      <c r="F10" s="13">
-        <v>7</v>
-      </c>
-      <c r="G10" s="13">
-        <v>8</v>
-      </c>
-      <c r="H10" s="13">
-        <v>7</v>
-      </c>
-      <c r="I10" s="13">
-        <v>3</v>
-      </c>
-      <c r="J10" s="13">
-        <v>8</v>
-      </c>
-      <c r="K10" s="13">
-        <v>3</v>
-      </c>
-      <c r="L10" s="13">
-        <v>5</v>
-      </c>
-      <c r="M10" s="13">
-        <v>6</v>
-      </c>
-      <c r="N10" s="13">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B11" s="13">
-        <v>102</v>
+        <v>435</v>
       </c>
       <c r="C11" s="13">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D11" s="13">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E11" s="13">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F11" s="13">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G11" s="13">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H11" s="13">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I11" s="13">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J11" s="13">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="K11" s="13">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="L11" s="13">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M11" s="13">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N11" s="13">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B12" s="13">
-        <v>435</v>
+        <v>139</v>
       </c>
       <c r="C12" s="13">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D12" s="13">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E12" s="13">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F12" s="13">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G12" s="13">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H12" s="13">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I12" s="13">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J12" s="13">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K12" s="13">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="L12" s="13">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M12" s="13">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N12" s="13">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B13" s="13">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C13" s="13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D13" s="13">
         <v>11</v>
       </c>
       <c r="E13" s="13">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F13" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="13">
+        <v>13</v>
+      </c>
+      <c r="H13" s="13">
         <v>12</v>
       </c>
-      <c r="H13" s="13">
+      <c r="I13" s="13">
+        <v>11</v>
+      </c>
+      <c r="J13" s="13">
         <v>9</v>
       </c>
-      <c r="I13" s="13">
-        <v>12</v>
-      </c>
-      <c r="J13" s="13">
-        <v>12</v>
-      </c>
       <c r="K13" s="13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L13" s="13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M13" s="13">
         <v>14</v>
       </c>
       <c r="N13" s="13">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="13">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="C14" s="13">
         <v>17</v>
       </c>
       <c r="D14" s="13">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E14" s="13">
+        <v>23</v>
+      </c>
+      <c r="F14" s="13">
+        <v>17</v>
+      </c>
+      <c r="G14" s="13">
         <v>22</v>
       </c>
-      <c r="F14" s="13">
-        <v>12</v>
-      </c>
-      <c r="G14" s="13">
-        <v>13</v>
-      </c>
       <c r="H14" s="13">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I14" s="13">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J14" s="13">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="K14" s="13">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L14" s="13">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M14" s="13">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N14" s="13">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="13">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="C15" s="13">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D15" s="13">
         <v>17</v>
       </c>
       <c r="E15" s="13">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F15" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" s="13">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H15" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I15" s="13">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J15" s="13">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K15" s="13">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L15" s="13">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M15" s="13">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N15" s="13">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B16" s="13">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="C16" s="13">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D16" s="13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E16" s="13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" s="13">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G16" s="13">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H16" s="13">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I16" s="13">
+        <v>12</v>
+      </c>
+      <c r="J16" s="13">
         <v>9</v>
       </c>
-      <c r="J16" s="13">
-        <v>11</v>
-      </c>
       <c r="K16" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L16" s="13">
+        <v>8</v>
+      </c>
+      <c r="M16" s="13">
         <v>14</v>
       </c>
-      <c r="M16" s="13">
-        <v>12</v>
-      </c>
       <c r="N16" s="13">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B17" s="13">
         <v>117</v>
       </c>
       <c r="C17" s="13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D17" s="13">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13">
+        <v>9</v>
+      </c>
+      <c r="F17" s="13">
+        <v>13</v>
+      </c>
+      <c r="G17" s="13">
         <v>12</v>
       </c>
-      <c r="E17" s="13">
+      <c r="H17" s="13">
         <v>12</v>
       </c>
-      <c r="F17" s="13">
-        <v>5</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="I17" s="13">
         <v>6</v>
       </c>
-      <c r="H17" s="13">
-        <v>6</v>
-      </c>
-      <c r="I17" s="13">
-        <v>12</v>
-      </c>
       <c r="J17" s="13">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K17" s="13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L17" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M17" s="13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N17" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="13">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C18" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="13">
         <v>10</v>
       </c>
       <c r="E18" s="13">
+        <v>10</v>
+      </c>
+      <c r="F18" s="13">
+        <v>11</v>
+      </c>
+      <c r="G18" s="13">
+        <v>14</v>
+      </c>
+      <c r="H18" s="13">
+        <v>10</v>
+      </c>
+      <c r="I18" s="13">
+        <v>8</v>
+      </c>
+      <c r="J18" s="13">
+        <v>13</v>
+      </c>
+      <c r="K18" s="13">
+        <v>5</v>
+      </c>
+      <c r="L18" s="13">
         <v>9</v>
       </c>
-      <c r="F18" s="13">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="M18" s="13">
         <v>12</v>
       </c>
-      <c r="H18" s="13">
-        <v>12</v>
-      </c>
-      <c r="I18" s="13">
-        <v>6</v>
-      </c>
-      <c r="J18" s="13">
-        <v>17</v>
-      </c>
-      <c r="K18" s="13">
-        <v>7</v>
-      </c>
-      <c r="L18" s="13">
-        <v>7</v>
-      </c>
-      <c r="M18" s="13">
-        <v>7</v>
-      </c>
       <c r="N18" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="B19" s="13">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C19" s="13">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="13">
+        <v>27</v>
+      </c>
+      <c r="E19" s="13">
+        <v>18</v>
+      </c>
+      <c r="F19" s="13">
         <v>10</v>
       </c>
-      <c r="E19" s="13">
+      <c r="G19" s="13">
+        <v>13</v>
+      </c>
+      <c r="H19" s="13">
+        <v>7</v>
+      </c>
+      <c r="I19" s="13">
         <v>10</v>
       </c>
-      <c r="F19" s="13">
+      <c r="J19" s="13">
         <v>11</v>
       </c>
-      <c r="G19" s="13">
-        <v>14</v>
-      </c>
-      <c r="H19" s="13">
-        <v>10</v>
-      </c>
-      <c r="I19" s="13">
-        <v>8</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="K19" s="13">
+        <v>15</v>
+      </c>
+      <c r="L19" s="13">
+        <v>11</v>
+      </c>
+      <c r="M19" s="13">
         <v>13</v>
       </c>
-      <c r="K19" s="13">
-        <v>5</v>
-      </c>
-      <c r="L19" s="13">
-        <v>9</v>
-      </c>
-      <c r="M19" s="13">
-        <v>12</v>
-      </c>
       <c r="N19" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B20" s="13">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="C20" s="13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" s="13">
+        <v>14</v>
+      </c>
+      <c r="E20" s="13">
+        <v>23</v>
+      </c>
+      <c r="F20" s="13">
         <v>27</v>
       </c>
-      <c r="E20" s="13">
+      <c r="G20" s="13">
+        <v>31</v>
+      </c>
+      <c r="H20" s="13">
+        <v>19</v>
+      </c>
+      <c r="I20" s="13">
+        <v>21</v>
+      </c>
+      <c r="J20" s="13">
+        <v>26</v>
+      </c>
+      <c r="K20" s="13">
         <v>18</v>
       </c>
-      <c r="F20" s="13">
-        <v>10</v>
-      </c>
-      <c r="G20" s="13">
-        <v>13</v>
-      </c>
-      <c r="H20" s="13">
-        <v>7</v>
-      </c>
-      <c r="I20" s="13">
-        <v>10</v>
-      </c>
-      <c r="J20" s="13">
-        <v>11</v>
-      </c>
-      <c r="K20" s="13">
+      <c r="L20" s="13">
+        <v>24</v>
+      </c>
+      <c r="M20" s="13">
+        <v>24</v>
+      </c>
+      <c r="N20" s="13">
         <v>15</v>
-      </c>
-      <c r="L20" s="13">
-        <v>11</v>
-      </c>
-      <c r="M20" s="13">
-        <v>13</v>
-      </c>
-      <c r="N20" s="13">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="13">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="C21" s="13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="13">
         <v>14</v>
       </c>
       <c r="E21" s="13">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F21" s="13">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G21" s="13">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H21" s="13">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I21" s="13">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J21" s="13">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K21" s="13">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L21" s="13">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M21" s="13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N21" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="13">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C22" s="13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E22" s="13">
+        <v>9</v>
+      </c>
+      <c r="F22" s="13">
+        <v>7</v>
+      </c>
+      <c r="G22" s="13">
+        <v>7</v>
+      </c>
+      <c r="H22" s="13">
         <v>16</v>
       </c>
-      <c r="F22" s="13">
+      <c r="I22" s="13">
         <v>11</v>
       </c>
-      <c r="G22" s="13">
+      <c r="J22" s="13">
+        <v>18</v>
+      </c>
+      <c r="K22" s="13">
         <v>13</v>
       </c>
-      <c r="H22" s="13">
-        <v>11</v>
-      </c>
-      <c r="I22" s="13">
-        <v>7</v>
-      </c>
-      <c r="J22" s="13">
-        <v>9</v>
-      </c>
-      <c r="K22" s="13">
-        <v>6</v>
-      </c>
       <c r="L22" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M22" s="13">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N22" s="13">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="13">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C23" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E23" s="13">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F23" s="13">
         <v>7</v>
       </c>
       <c r="G23" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H23" s="13">
+        <v>15</v>
+      </c>
+      <c r="I23" s="13">
+        <v>14</v>
+      </c>
+      <c r="J23" s="13">
+        <v>26</v>
+      </c>
+      <c r="K23" s="13">
         <v>16</v>
       </c>
-      <c r="I23" s="13">
-        <v>11</v>
-      </c>
-      <c r="J23" s="13">
-        <v>18</v>
-      </c>
-      <c r="K23" s="13">
-        <v>13</v>
-      </c>
       <c r="L23" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M23" s="13">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N23" s="13">
         <v>13</v>
@@ -3294,96 +3364,49 @@
     </row>
     <row r="24" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="13">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C24" s="13">
+        <v>8</v>
+      </c>
+      <c r="D24" s="13">
+        <v>17</v>
+      </c>
+      <c r="E24" s="13">
+        <v>18</v>
+      </c>
+      <c r="F24" s="13">
         <v>12</v>
       </c>
-      <c r="D24" s="13">
-        <v>15</v>
-      </c>
-      <c r="E24" s="13">
-        <v>16</v>
-      </c>
-      <c r="F24" s="13">
-        <v>7</v>
-      </c>
       <c r="G24" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H24" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I24" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J24" s="13">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K24" s="13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L24" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M24" s="13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N24" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="13">
-        <v>142</v>
-      </c>
-      <c r="C25" s="13">
-        <v>8</v>
-      </c>
-      <c r="D25" s="13">
-        <v>17</v>
-      </c>
-      <c r="E25" s="13">
-        <v>18</v>
-      </c>
-      <c r="F25" s="13">
-        <v>12</v>
-      </c>
-      <c r="G25" s="13">
         <v>11</v>
       </c>
-      <c r="H25" s="13">
-        <v>10</v>
-      </c>
-      <c r="I25" s="13">
-        <v>12</v>
-      </c>
-      <c r="J25" s="13">
-        <v>11</v>
-      </c>
-      <c r="K25" s="13">
-        <v>12</v>
-      </c>
-      <c r="L25" s="13">
-        <v>3</v>
-      </c>
-      <c r="M25" s="13">
-        <v>17</v>
-      </c>
-      <c r="N25" s="13">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.3779527559055118" right="0.59055118110236227" top="0.98425196850393704" bottom="0.78740157480314965" header="0.59055118110236227" footer="0.78740157480314965"/>
@@ -3413,25 +3436,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="A1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -3451,7 +3474,7 @@
       <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="34" t="s">
         <v>35</v>
       </c>
@@ -4108,22 +4131,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="A1" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">

--- a/DATOS/Divorcios2017.xlsx
+++ b/DATOS/Divorcios2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue\Desktop\PROYECTO\Proyecto-AnalisisExploratorioClustering-MineriaDeDatos\DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E480F-0F4E-460E-9AB1-E4F16C5DF686}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B199754-AA7A-4DE6-9E2A-7975ECD54A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" tabRatio="714" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5955" yWindow="1935" windowWidth="21600" windowHeight="11385" tabRatio="714" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contenido" sheetId="15" r:id="rId1"/>
@@ -287,24 +287,6 @@
     <t>No especificado en otro grupo</t>
   </si>
   <si>
-    <t>Sacatepequez</t>
-  </si>
-  <si>
-    <t>Solola</t>
-  </si>
-  <si>
-    <t>Totonicapan</t>
-  </si>
-  <si>
-    <t>Suchitepequez</t>
-  </si>
-  <si>
-    <t>Quiche</t>
-  </si>
-  <si>
-    <t>Peten</t>
-  </si>
-  <si>
     <t>Divorcios por pueblo de pertenencia del hombre, según pueblo de pertenencia de la mujer, año 2017</t>
   </si>
   <si>
@@ -315,6 +297,24 @@
   </si>
   <si>
     <t>Menos de 15</t>
+  </si>
+  <si>
+    <t>Sacatepéquez</t>
+  </si>
+  <si>
+    <t>Sololá</t>
+  </si>
+  <si>
+    <t>Totonicapán</t>
+  </si>
+  <si>
+    <t>Suchitepéquez</t>
+  </si>
+  <si>
+    <t>Quiché</t>
+  </si>
+  <si>
+    <t>Petén</t>
   </si>
 </sst>
 </file>
@@ -569,9 +569,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,6 +662,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1339,107 +1339,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="26"/>
+    <col min="1" max="16384" width="11.42578125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1479,10 +1479,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -1523,81 +1523,81 @@
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>5808</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>7</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>267</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>670</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>674</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>485</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="20">
         <v>300</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <v>176</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="20">
         <v>104</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="20">
         <v>92</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="20">
         <v>95</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>2938</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21">
-        <v>0</v>
-      </c>
-      <c r="J3" s="21">
-        <v>0</v>
-      </c>
-      <c r="K3" s="21">
-        <v>0</v>
-      </c>
-      <c r="L3" s="21">
-        <v>0</v>
-      </c>
-      <c r="M3" s="21">
+      <c r="A3" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1605,40 +1605,40 @@
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>79</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>5</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>45</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>20</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>5</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>3</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="20">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-      <c r="L4" s="20">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20">
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1646,40 +1646,40 @@
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>549</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>168</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>242</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>83</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>41</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>7</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>2</v>
       </c>
-      <c r="J5" s="20">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="L5" s="20">
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
         <v>3</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1687,40 +1687,40 @@
       <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>741</v>
       </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
         <v>43</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>301</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>265</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>74</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>29</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>7</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>4</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <v>5</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>2</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1728,40 +1728,40 @@
       <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>597</v>
       </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
         <v>7</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>78</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>227</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>159</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>55</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>14</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <v>7</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <v>6</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <v>3</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <v>41</v>
       </c>
     </row>
@@ -1769,40 +1769,40 @@
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>355</v>
       </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>20</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>54</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>132</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>78</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>22</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>3</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>4</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <v>2</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <v>38</v>
       </c>
     </row>
@@ -1810,40 +1810,40 @@
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>231</v>
       </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
         <v>4</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>11</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>30</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>57</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>50</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <v>19</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <v>14</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <v>5</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>41</v>
       </c>
     </row>
@@ -1851,40 +1851,40 @@
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>142</v>
       </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>1</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>7</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>3</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>14</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>41</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <v>26</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>14</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="19">
         <v>5</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="19">
         <v>30</v>
       </c>
     </row>
@@ -1892,40 +1892,40 @@
       <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>83</v>
       </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
+      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
         <v>5</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>6</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>8</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <v>17</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <v>25</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <v>12</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>10</v>
       </c>
     </row>
@@ -1933,40 +1933,40 @@
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>47</v>
       </c>
-      <c r="C12" s="20">
-        <v>0</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
         <v>1</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>5</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <v>5</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <v>8</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <v>21</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <v>7</v>
       </c>
     </row>
@@ -1974,40 +1974,40 @@
       <c r="A13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>29</v>
       </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0</v>
-      </c>
-      <c r="I13" s="20">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20">
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
         <v>1</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="19">
         <v>1</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="19">
         <v>23</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>4</v>
       </c>
     </row>
@@ -2015,40 +2015,40 @@
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>2955</v>
       </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
         <v>1</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>4</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>22</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>38</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>52</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <v>27</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <v>22</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <v>15</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <v>19</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>2755</v>
       </c>
     </row>
@@ -2081,78 +2081,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="A1" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>5808</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>412</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>3</v>
       </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
         <v>2184</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>24</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>3185</v>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2398,48 +2398,48 @@
       <c r="A2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>5808</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>428</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>469</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>531</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>445</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>570</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>476</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <v>434</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="18">
         <v>508</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>489</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <v>508</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="18">
         <v>492</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="18">
         <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="13">
@@ -2483,7 +2483,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="13">
@@ -2527,8 +2527,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>85</v>
+      <c r="A5" s="52" t="s">
+        <v>89</v>
       </c>
       <c r="B5" s="13">
         <v>135</v>
@@ -2571,7 +2571,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="13">
@@ -2615,7 +2615,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="13">
@@ -2659,7 +2659,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="13">
@@ -2703,8 +2703,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>86</v>
+      <c r="A9" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="B9" s="13">
         <v>72</v>
@@ -2747,8 +2747,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>87</v>
+      <c r="A10" s="52" t="s">
+        <v>91</v>
       </c>
       <c r="B10" s="13">
         <v>102</v>
@@ -2791,7 +2791,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="52" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="13">
@@ -2835,8 +2835,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>88</v>
+      <c r="A12" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="B12" s="13">
         <v>139</v>
@@ -2879,7 +2879,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="52" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="13">
@@ -2923,7 +2923,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="13">
@@ -2967,7 +2967,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="13">
@@ -3011,8 +3011,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>89</v>
+      <c r="A16" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="B16" s="13">
         <v>117</v>
@@ -3055,7 +3055,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="13">
@@ -3099,7 +3099,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="52" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="13">
@@ -3143,8 +3143,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>90</v>
+      <c r="A19" s="52" t="s">
+        <v>94</v>
       </c>
       <c r="B19" s="13">
         <v>165</v>
@@ -3187,7 +3187,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="13">
@@ -3231,7 +3231,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="52" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="13">
@@ -3275,7 +3275,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="52" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="13">
@@ -3319,7 +3319,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="13">
@@ -3363,7 +3363,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="52" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="13">
@@ -3436,671 +3436,671 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="A1" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="37" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:14" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>5808</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>2</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>21</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <v>458</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <v>178</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="35">
         <v>373</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <v>140</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>1</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <v>26</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <v>17</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <v>7</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <v>3036</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="35">
         <v>1549</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <v>13</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
-        <v>0</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
         <v>2</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>1</v>
       </c>
-      <c r="H5" s="38">
-        <v>0</v>
-      </c>
-      <c r="I5" s="38">
-        <v>0</v>
-      </c>
-      <c r="J5" s="38">
-        <v>0</v>
-      </c>
-      <c r="K5" s="38">
-        <v>0</v>
-      </c>
-      <c r="L5" s="38">
-        <v>0</v>
-      </c>
-      <c r="M5" s="38">
+      <c r="H5" s="37">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37">
+        <v>0</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0</v>
+      </c>
+      <c r="M5" s="37">
         <v>7</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="37">
         <v>35</v>
       </c>
-      <c r="C6" s="38">
-        <v>0</v>
-      </c>
-      <c r="D6" s="38">
+      <c r="C6" s="37">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37">
         <v>2</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>10</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>5</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>8</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="37">
         <v>1</v>
       </c>
-      <c r="I6" s="38">
-        <v>0</v>
-      </c>
-      <c r="J6" s="38">
-        <v>0</v>
-      </c>
-      <c r="K6" s="38">
-        <v>0</v>
-      </c>
-      <c r="L6" s="38">
-        <v>0</v>
-      </c>
-      <c r="M6" s="38">
+      <c r="I6" s="37">
+        <v>0</v>
+      </c>
+      <c r="J6" s="37">
+        <v>0</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0</v>
+      </c>
+      <c r="L6" s="37">
+        <v>0</v>
+      </c>
+      <c r="M6" s="37">
         <v>8</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <v>413</v>
       </c>
-      <c r="C7" s="38">
-        <v>0</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="C7" s="37">
+        <v>0</v>
+      </c>
+      <c r="D7" s="37">
         <v>10</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>137</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>27</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>44</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="37">
         <v>8</v>
       </c>
-      <c r="I7" s="38">
-        <v>0</v>
-      </c>
-      <c r="J7" s="38">
-        <v>0</v>
-      </c>
-      <c r="K7" s="38">
-        <v>0</v>
-      </c>
-      <c r="L7" s="38">
-        <v>0</v>
-      </c>
-      <c r="M7" s="38">
+      <c r="I7" s="37">
+        <v>0</v>
+      </c>
+      <c r="J7" s="37">
+        <v>0</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0</v>
+      </c>
+      <c r="L7" s="37">
+        <v>0</v>
+      </c>
+      <c r="M7" s="37">
         <v>159</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="37">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="37">
         <v>342</v>
       </c>
-      <c r="C8" s="38">
-        <v>0</v>
-      </c>
-      <c r="D8" s="38">
-        <v>0</v>
-      </c>
-      <c r="E8" s="38">
+      <c r="C8" s="37">
+        <v>0</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
         <v>63</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>42</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>67</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>4</v>
       </c>
-      <c r="I8" s="38">
-        <v>0</v>
-      </c>
-      <c r="J8" s="38">
+      <c r="I8" s="37">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37">
         <v>1</v>
       </c>
-      <c r="K8" s="38">
-        <v>0</v>
-      </c>
-      <c r="L8" s="38">
-        <v>0</v>
-      </c>
-      <c r="M8" s="38">
+      <c r="K8" s="37">
+        <v>0</v>
+      </c>
+      <c r="L8" s="37">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
         <v>150</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="37">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>221</v>
       </c>
-      <c r="C9" s="38">
-        <v>0</v>
-      </c>
-      <c r="D9" s="38">
-        <v>0</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="C9" s="37">
+        <v>0</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
         <v>24</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>15</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <v>49</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="37">
         <v>6</v>
       </c>
-      <c r="I9" s="38">
-        <v>0</v>
-      </c>
-      <c r="J9" s="38">
-        <v>0</v>
-      </c>
-      <c r="K9" s="38">
-        <v>0</v>
-      </c>
-      <c r="L9" s="38">
-        <v>0</v>
-      </c>
-      <c r="M9" s="38">
+      <c r="I9" s="37">
+        <v>0</v>
+      </c>
+      <c r="J9" s="37">
+        <v>0</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0</v>
+      </c>
+      <c r="L9" s="37">
+        <v>0</v>
+      </c>
+      <c r="M9" s="37">
         <v>112</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="37">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="37">
         <v>366</v>
       </c>
-      <c r="C10" s="38">
-        <v>0</v>
-      </c>
-      <c r="D10" s="38">
+      <c r="C10" s="37">
+        <v>0</v>
+      </c>
+      <c r="D10" s="37">
         <v>2</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>33</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>15</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="37">
         <v>34</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="37">
         <v>47</v>
       </c>
-      <c r="I10" s="38">
-        <v>0</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="I10" s="37">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37">
         <v>3</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="37">
         <v>1</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="37">
         <v>2</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="37">
         <v>206</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="37">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="37">
         <v>17</v>
       </c>
-      <c r="C11" s="38">
-        <v>0</v>
-      </c>
-      <c r="D11" s="38">
-        <v>0</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="C11" s="37">
+        <v>0</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
         <v>2</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>1</v>
       </c>
-      <c r="G11" s="38">
-        <v>0</v>
-      </c>
-      <c r="H11" s="38">
-        <v>0</v>
-      </c>
-      <c r="I11" s="38">
-        <v>0</v>
-      </c>
-      <c r="J11" s="38">
-        <v>0</v>
-      </c>
-      <c r="K11" s="38">
-        <v>0</v>
-      </c>
-      <c r="L11" s="38">
-        <v>0</v>
-      </c>
-      <c r="M11" s="38">
+      <c r="G11" s="37">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0</v>
+      </c>
+      <c r="J11" s="37">
+        <v>0</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0</v>
+      </c>
+      <c r="M11" s="37">
         <v>11</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="37">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <v>326</v>
       </c>
-      <c r="C12" s="38">
-        <v>0</v>
-      </c>
-      <c r="D12" s="38">
-        <v>0</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="C12" s="37">
+        <v>0</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37">
         <v>19</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>14</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>26</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <v>12</v>
       </c>
-      <c r="I12" s="38">
-        <v>0</v>
-      </c>
-      <c r="J12" s="38">
+      <c r="I12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37">
         <v>4</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="37">
         <v>1</v>
       </c>
-      <c r="L12" s="38">
-        <v>0</v>
-      </c>
-      <c r="M12" s="38">
+      <c r="L12" s="37">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37">
         <v>221</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="37">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <v>150</v>
       </c>
-      <c r="C13" s="38">
-        <v>0</v>
-      </c>
-      <c r="D13" s="38">
-        <v>0</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
         <v>8</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>2</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <v>6</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="37">
         <v>8</v>
       </c>
-      <c r="I13" s="38">
-        <v>0</v>
-      </c>
-      <c r="J13" s="38">
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
         <v>3</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="37">
         <v>2</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="37">
         <v>1</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="37">
         <v>106</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="37">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="37">
         <v>868</v>
       </c>
-      <c r="C14" s="38">
-        <v>0</v>
-      </c>
-      <c r="D14" s="38">
-        <v>0</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="C14" s="37">
+        <v>0</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0</v>
+      </c>
+      <c r="E14" s="37">
         <v>19</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <v>14</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <v>18</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="37">
         <v>15</v>
       </c>
-      <c r="I14" s="38">
-        <v>0</v>
-      </c>
-      <c r="J14" s="38">
+      <c r="I14" s="37">
+        <v>0</v>
+      </c>
+      <c r="J14" s="37">
         <v>3</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="37">
         <v>10</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="37">
         <v>3</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="37">
         <v>669</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="37">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="37">
         <v>1730</v>
       </c>
-      <c r="C15" s="38">
-        <v>0</v>
-      </c>
-      <c r="D15" s="38">
+      <c r="C15" s="37">
+        <v>0</v>
+      </c>
+      <c r="D15" s="37">
         <v>6</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>123</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <v>36</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <v>109</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="37">
         <v>30</v>
       </c>
-      <c r="I15" s="38">
-        <v>0</v>
-      </c>
-      <c r="J15" s="38">
+      <c r="I15" s="37">
+        <v>0</v>
+      </c>
+      <c r="J15" s="37">
         <v>12</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="37">
         <v>2</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="37">
         <v>1</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="37">
         <v>1292</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="37">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="37">
         <v>1327</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <v>1</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>1</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>18</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="37">
         <v>6</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="37">
         <v>11</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="37">
         <v>9</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="37">
         <v>1</v>
       </c>
-      <c r="J16" s="38">
-        <v>0</v>
-      </c>
-      <c r="K16" s="38">
+      <c r="J16" s="37">
+        <v>0</v>
+      </c>
+      <c r="K16" s="37">
         <v>1</v>
       </c>
-      <c r="L16" s="38">
-        <v>0</v>
-      </c>
-      <c r="M16" s="38">
+      <c r="L16" s="37">
+        <v>0</v>
+      </c>
+      <c r="M16" s="37">
         <v>95</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="37">
         <v>1184</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4131,22 +4131,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="A1" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -4196,1407 +4196,1407 @@
       <c r="A3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>5808</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>443</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>509</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>589</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>402</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>556</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <v>499</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="23">
         <v>515</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
         <v>586</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <v>475</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <v>524</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="23">
         <v>426</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="23">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>143</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>19</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>32</v>
       </c>
-      <c r="F4" s="22">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
         <v>30</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>1</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>25</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <v>21</v>
       </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22">
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>193</v>
       </c>
-      <c r="C5" s="22">
-        <v>0</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
         <v>24</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>32</v>
       </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
         <v>28</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>19</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <v>1</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>34</v>
       </c>
-      <c r="K5" s="23">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
         <v>30</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="21">
         <v>25</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>246</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>18</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>32</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>16</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>32</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>24</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>1</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>35</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>31</v>
       </c>
-      <c r="K6" s="23">
-        <v>0</v>
-      </c>
-      <c r="L6" s="22">
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
         <v>16</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="21">
         <v>41</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>162</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>7</v>
       </c>
-      <c r="D7" s="22">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
         <v>21</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>21</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>1</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <v>23</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>18</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>22</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="21">
         <v>22</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="21">
         <v>1</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="21">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>184</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>11</v>
       </c>
-      <c r="D8" s="22">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
         <v>1</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>24</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>25</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>25</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="21">
         <v>22</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>1</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>25</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="21">
         <v>31</v>
       </c>
-      <c r="M8" s="22">
-        <v>0</v>
-      </c>
-      <c r="N8" s="22">
+      <c r="M8" s="21">
+        <v>0</v>
+      </c>
+      <c r="N8" s="21">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>227</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>11</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>24</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>33</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>26</v>
       </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
         <v>19</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <v>24</v>
       </c>
-      <c r="J9" s="22">
-        <v>0</v>
-      </c>
-      <c r="K9" s="23">
+      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
         <v>26</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="21">
         <v>14</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="21">
         <v>27</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="21">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>197</v>
       </c>
-      <c r="C10" s="22">
-        <v>0</v>
-      </c>
-      <c r="D10" s="22">
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
         <v>21</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>22</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>25</v>
       </c>
-      <c r="G10" s="22">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
         <v>19</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="21">
         <v>15</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <v>27</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>34</v>
       </c>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
-      <c r="M10" s="22">
+      <c r="L10" s="21">
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
         <v>22</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>180</v>
       </c>
-      <c r="C11" s="22">
-        <v>0</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
         <v>30</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>20</v>
       </c>
-      <c r="F11" s="22">
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
         <v>35</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <v>24</v>
       </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
         <v>27</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>18</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="21">
         <v>1</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="21">
         <v>19</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>9</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>170</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>22</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>20</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>25</v>
       </c>
-      <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22">
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
         <v>23</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>21</v>
       </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
         <v>26</v>
       </c>
-      <c r="K12" s="23">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22">
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
         <v>18</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="21">
         <v>14</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>221</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>35</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>21</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>20</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>27</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>4</v>
       </c>
-      <c r="H13" s="22">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
         <v>39</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="21">
         <v>26</v>
       </c>
-      <c r="K13" s="23">
-        <v>0</v>
-      </c>
-      <c r="L13" s="22">
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
         <v>27</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="21">
         <v>22</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>11</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>162</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>23</v>
       </c>
-      <c r="D14" s="22">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0</v>
-      </c>
-      <c r="F14" s="22">
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
         <v>14</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>25</v>
       </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
         <v>24</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <v>15</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <v>34</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="21">
         <v>7</v>
       </c>
-      <c r="M14" s="22">
-        <v>0</v>
-      </c>
-      <c r="N14" s="22">
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>12</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>183</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>25</v>
       </c>
-      <c r="D15" s="22">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22">
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
         <v>2</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>18</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <v>44</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="21">
         <v>23</v>
       </c>
-      <c r="J15" s="22">
-        <v>0</v>
-      </c>
-      <c r="K15" s="23">
+      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+      <c r="K15" s="22">
         <v>25</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="21">
         <v>36</v>
       </c>
-      <c r="M15" s="22">
-        <v>0</v>
-      </c>
-      <c r="N15" s="22">
+      <c r="M15" s="21">
+        <v>0</v>
+      </c>
+      <c r="N15" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>13</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>199</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>12</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>29</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>19</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>2</v>
       </c>
-      <c r="G16" s="22">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="G16" s="21">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
         <v>17</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="21">
         <v>27</v>
       </c>
-      <c r="J16" s="22">
-        <v>0</v>
-      </c>
-      <c r="K16" s="23">
+      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
         <v>25</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="21">
         <v>27</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="21">
         <v>23</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="21">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>14</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>158</v>
       </c>
-      <c r="C17" s="22">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
         <v>21</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>30</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>2</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <v>1</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <v>19</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="21">
         <v>19</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <v>18</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <v>22</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="21">
         <v>1</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="21">
         <v>11</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="21">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>15</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>172</v>
       </c>
-      <c r="C18" s="22">
-        <v>0</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="21">
         <v>24</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>29</v>
       </c>
-      <c r="F18" s="22">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22">
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
         <v>34</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="21">
         <v>39</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="21">
         <v>1</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="21">
         <v>17</v>
       </c>
-      <c r="K18" s="23">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
-        <v>0</v>
-      </c>
-      <c r="M18" s="22">
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
         <v>17</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>188</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>25</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>24</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>22</v>
       </c>
-      <c r="F19" s="22">
-        <v>0</v>
-      </c>
-      <c r="G19" s="22">
+      <c r="F19" s="21">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
         <v>22</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
         <v>16</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="21">
         <v>1</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="21">
         <v>23</v>
       </c>
-      <c r="K19" s="23">
-        <v>0</v>
-      </c>
-      <c r="L19" s="22">
+      <c r="K19" s="22">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
         <v>37</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="21">
         <v>18</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>17</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>212</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>17</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>17</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>13</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <v>38</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <v>30</v>
       </c>
-      <c r="H20" s="22">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="H20" s="21">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21">
         <v>28</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <v>26</v>
       </c>
-      <c r="K20" s="23">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
         <v>23</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="21">
         <v>20</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>155</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>10</v>
       </c>
-      <c r="D21" s="22">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
         <v>28</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <v>18</v>
       </c>
-      <c r="H21" s="22">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
         <v>17</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <v>25</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="22">
         <v>20</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="21">
         <v>21</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="21">
         <v>1</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="21">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>19</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>176</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>27</v>
       </c>
-      <c r="D22" s="22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="22">
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
         <v>14</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>24</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="21">
         <v>16</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="21">
         <v>19</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <v>1</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="22">
         <v>22</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="21">
         <v>37</v>
       </c>
-      <c r="M22" s="22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="22">
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="21">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>231</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>26</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>38</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>42</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <v>21</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <v>2</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="21">
         <v>22</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="21">
         <v>19</v>
       </c>
-      <c r="J23" s="22">
-        <v>0</v>
-      </c>
-      <c r="K23" s="23">
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="22">
         <v>21</v>
       </c>
-      <c r="L23" s="22">
-        <v>0</v>
-      </c>
-      <c r="M23" s="22">
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
         <v>20</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="21">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>21</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>196</v>
       </c>
-      <c r="C24" s="22">
-        <v>0</v>
-      </c>
-      <c r="D24" s="22">
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+      <c r="D24" s="21">
         <v>33</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>14</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>16</v>
       </c>
-      <c r="G24" s="22">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22">
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
         <v>21</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <v>28</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>38</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="22">
         <v>18</v>
       </c>
-      <c r="L24" s="22">
-        <v>0</v>
-      </c>
-      <c r="M24" s="22">
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
         <v>16</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>204</v>
       </c>
-      <c r="C25" s="22">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22">
+      <c r="C25" s="21">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21">
         <v>25</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <v>29</v>
       </c>
-      <c r="F25" s="22">
-        <v>0</v>
-      </c>
-      <c r="G25" s="22">
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
         <v>37</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="21">
         <v>25</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="21">
         <v>1</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <v>32</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="22">
         <v>29</v>
       </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-      <c r="M25" s="22">
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
         <v>12</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="21">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>23</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>190</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>31</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>24</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <v>31</v>
       </c>
-      <c r="F26" s="22">
-        <v>0</v>
-      </c>
-      <c r="G26" s="22">
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
         <v>31</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="21">
         <v>11</v>
       </c>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-      <c r="J26" s="22">
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21">
         <v>17</v>
       </c>
-      <c r="K26" s="23">
-        <v>0</v>
-      </c>
-      <c r="L26" s="22">
+      <c r="K26" s="22">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21">
         <v>29</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <v>16</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>24</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>216</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>17</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>20</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <v>29</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>30</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <v>26</v>
       </c>
-      <c r="H27" s="22">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22">
+      <c r="H27" s="21">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21">
         <v>35</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <v>18</v>
       </c>
-      <c r="K27" s="23">
-        <v>0</v>
-      </c>
-      <c r="L27" s="22">
+      <c r="K27" s="22">
+        <v>0</v>
+      </c>
+      <c r="L27" s="21">
         <v>21</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="21">
         <v>20</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N27" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>25</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>175</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>21</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>1</v>
       </c>
-      <c r="E28" s="22">
-        <v>0</v>
-      </c>
-      <c r="F28" s="22">
+      <c r="E28" s="21">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21">
         <v>19</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>30</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="21">
         <v>1</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <v>24</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>24</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="22">
         <v>16</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="21">
         <v>39</v>
       </c>
-      <c r="M28" s="22">
-        <v>0</v>
-      </c>
-      <c r="N28" s="22">
+      <c r="M28" s="21">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>26</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>164</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>22</v>
       </c>
-      <c r="D29" s="22">
-        <v>0</v>
-      </c>
-      <c r="E29" s="22">
-        <v>0</v>
-      </c>
-      <c r="F29" s="22">
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21">
         <v>16</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <v>22</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="21">
         <v>39</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <v>21</v>
       </c>
-      <c r="J29" s="22">
-        <v>0</v>
-      </c>
-      <c r="K29" s="23">
+      <c r="J29" s="21">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22">
         <v>22</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="21">
         <v>22</v>
       </c>
-      <c r="M29" s="22">
-        <v>0</v>
-      </c>
-      <c r="N29" s="22">
+      <c r="M29" s="21">
+        <v>0</v>
+      </c>
+      <c r="N29" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>27</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>261</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>35</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>34</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="21">
         <v>25</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <v>23</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <v>1</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="21">
         <v>27</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <v>35</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>1</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="22">
         <v>30</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="21">
         <v>17</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="21">
         <v>23</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>28</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>187</v>
       </c>
-      <c r="C31" s="22">
-        <v>0</v>
-      </c>
-      <c r="D31" s="22">
+      <c r="C31" s="21">
+        <v>0</v>
+      </c>
+      <c r="D31" s="21">
         <v>28</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="21">
         <v>28</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <v>21</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>1</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="21">
         <v>18</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="21">
         <v>11</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>27</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="22">
         <v>26</v>
       </c>
-      <c r="L31" s="22">
-        <v>0</v>
-      </c>
-      <c r="M31" s="22">
+      <c r="L31" s="21">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
         <v>14</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="21">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>29</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>155</v>
       </c>
-      <c r="C32" s="22">
-        <v>0</v>
-      </c>
-      <c r="D32" s="22">
-        <v>0</v>
-      </c>
-      <c r="E32" s="22">
+      <c r="C32" s="21">
+        <v>0</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0</v>
+      </c>
+      <c r="E32" s="21">
         <v>24</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="21">
         <v>1</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>24</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="21">
         <v>25</v>
       </c>
-      <c r="I32" s="22">
-        <v>0</v>
-      </c>
-      <c r="J32" s="22">
+      <c r="I32" s="21">
+        <v>0</v>
+      </c>
+      <c r="J32" s="21">
         <v>29</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="22">
         <v>19</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="21">
         <v>1</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="21">
         <v>22</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
+      <c r="A33" s="17">
         <v>30</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>164</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>24</v>
       </c>
-      <c r="D33" s="22">
-        <v>0</v>
-      </c>
-      <c r="E33" s="22">
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
         <v>33</v>
       </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
+      <c r="F33" s="21">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21">
         <v>27</v>
       </c>
-      <c r="H33" s="22">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
-        <v>0</v>
-      </c>
-      <c r="J33" s="22">
+      <c r="H33" s="21">
+        <v>0</v>
+      </c>
+      <c r="I33" s="21">
+        <v>0</v>
+      </c>
+      <c r="J33" s="21">
         <v>32</v>
       </c>
-      <c r="K33" s="23">
-        <v>0</v>
-      </c>
-      <c r="L33" s="22">
+      <c r="K33" s="22">
+        <v>0</v>
+      </c>
+      <c r="L33" s="21">
         <v>26</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="21">
         <v>22</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>31</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>137</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <v>23</v>
       </c>
-      <c r="D34" s="22">
-        <v>0</v>
-      </c>
-      <c r="E34" s="22">
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
         <v>20</v>
       </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
         <v>23</v>
       </c>
-      <c r="H34" s="22">
-        <v>0</v>
-      </c>
-      <c r="I34" s="22">
+      <c r="H34" s="21">
+        <v>0</v>
+      </c>
+      <c r="I34" s="21">
         <v>22</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="21">
         <v>28</v>
       </c>
-      <c r="K34" s="23">
-        <v>0</v>
-      </c>
-      <c r="L34" s="22">
+      <c r="K34" s="22">
+        <v>0</v>
+      </c>
+      <c r="L34" s="21">
         <v>21</v>
       </c>
-      <c r="M34" s="22">
-        <v>0</v>
-      </c>
-      <c r="N34" s="22">
+      <c r="M34" s="21">
+        <v>0</v>
+      </c>
+      <c r="N34" s="21">
         <v>0</v>
       </c>
     </row>
